--- a/participants/participant_18/participant_18_task_orders.xlsx
+++ b/participants/participant_18/participant_18_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730584546776" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730618216407" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730618276408" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1649873061884642" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730619476767" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911722667162" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911764127667" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911764147773" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911764767747" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911765547676" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730584256482.csv</t>
+          <t>go_stims-16502911722317135.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730584376426.csv</t>
+          <t>GNG_stims-16502911722497194.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1649873058439643.csv</t>
+          <t>go_stims-16502911722517126.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873058453678.csv</t>
+          <t>GNG_stims-16502911722657151.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16498730605536427.csv</t>
+          <t>ZB-match_7-16502911722807162.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16498730586466787.csv</t>
+          <t>TB-1650291175322764.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1649873059289644.csv</t>
+          <t>ZB-match_6-16502911727727149.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730585956411.csv</t>
+          <t>TB-1650291176390764.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498730585576792.csv</t>
+          <t>OB-16502911735537505.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16498730600206747.csv</t>
+          <t>OB-1650291174085712.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498730593276403.csv</t>
+          <t>TB-16502911741187146.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16498730606896741.csv</t>
+          <t>ZB-match_2-16502911725287125.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730617996411.csv</t>
+          <t>OB-16502911728487124.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873061851674.csv</t>
+          <t>MM_stims-16502911764277692.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730618296404.csv</t>
+          <t>ZM_stims-1650291176416771.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730618676753.csv</t>
+          <t>MM_stims-16502911764587686.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730618526435.csv</t>
+          <t>ZM_stims-16502911764287746.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1649873061883675.csv</t>
+          <t>MM_stims-16502911764748034.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730618686593.csv</t>
+          <t>ZM_stims-16502911764597657.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730619316757.csv</t>
+          <t>SAT_stims-1650291176506769.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730618996758.csv</t>
+          <t>vSAT_stims-16502911765387752.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730619156902.csv</t>
+          <t>vSAT_stims-16502911765237658.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873061888646.csv</t>
+          <t>SAT_stims-16502911764807656.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_18/participant_18_task_orders.xlsx
+++ b/participants/participant_18/participant_18_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911722667162" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911764127667" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911764147773" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911764767747" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911765547676" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-165047781722466" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778189396904" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778189456599" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778190046597" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778190676632" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911722317135.csv</t>
+          <t>go_stims-1650477817182663.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911722497194.csv</t>
+          <t>GNG_stims-16504778172076595.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911722517126.csv</t>
+          <t>go_stims-16504778172086592.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911722657151.csv</t>
+          <t>GNG_stims-16504778172236927.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502911722807162.csv</t>
+          <t>OB-1650477817629662.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1650291175322764.csv</t>
+          <t>OB-16504778177086885.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911727727149.csv</t>
+          <t>TB-165047781884566.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1650291176390764.csv</t>
+          <t>ZB-match_1-16504778174436626.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502911735537505.csv</t>
+          <t>TB-16504778187426584.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1650291174085712.csv</t>
+          <t>ZB-match_0-16504778172876892.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502911741187146.csv</t>
+          <t>ZB-match_9-16504778175556595.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502911725287125.csv</t>
+          <t>TB-16504778189166949.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502911728487124.csv</t>
+          <t>OB-16504778175816617.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911764277692.csv</t>
+          <t>MM_stims-1650477818971691.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291176416771.csv</t>
+          <t>ZM_stims-16504778189466588.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911764587686.csv</t>
+          <t>MM_stims-165047781898769.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911764287746.csv</t>
+          <t>ZM_stims-1650477818972662.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911764748034.csv</t>
+          <t>MM_stims-165047781900369.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911764597657.csv</t>
+          <t>ZM_stims-1650477818988662.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291176506769.csv</t>
+          <t>vSAT_stims-1650477819035691.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911765387752.csv</t>
+          <t>SAT_stims-16504778190196626.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911765237658.csv</t>
+          <t>vSAT_stims-16504778190516596.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911764807656.csv</t>
+          <t>SAT_stims-16504778190076606.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_18/participant_18_task_orders.xlsx
+++ b/participants/participant_18/participant_18_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-165047781722466" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778189396904" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778189456599" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778190046597" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778190676632" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650996106457352" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961079533937" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961079533937" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961080093818" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961080733855" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650477817182663.csv</t>
+          <t>go_stims-16509961064253502.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778172076595.csv</t>
+          <t>GNG_stims-16509961064413476.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778172086592.csv</t>
+          <t>go_stims-16509961064413476.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778172236927.csv</t>
+          <t>GNG_stims-1650996106457352.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650477817629662.csv</t>
+          <t>ZB-match_7-165099610656935.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16504778177086885.csv</t>
+          <t>OB-16509961072813475.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-165047781884566.csv</t>
+          <t>OB-16509961070013518.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778174436626.csv</t>
+          <t>TB-1650996107937352.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778187426584.csv</t>
+          <t>OB-165099610680938.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778172876892.csv</t>
+          <t>TB-1650996107417388.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778175556595.csv</t>
+          <t>ZB-match_8-16509961065293858.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504778189166949.csv</t>
+          <t>TB-1650996107721382.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504778175816617.csv</t>
+          <t>ZB-match_4-16509961067213483.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650477818971691.csv</t>
+          <t>MM_stims-16509961079693484.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778189466588.csv</t>
+          <t>ZM_stims-16509961079533937.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-165047781898769.csv</t>
+          <t>MM_stims-16509961079933825.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477818972662.csv</t>
+          <t>ZM_stims-16509961079693484.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-165047781900369.csv</t>
+          <t>MM_stims-16509961080093818.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477818988662.csv</t>
+          <t>ZM_stims-16509961079933825.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477819035691.csv</t>
+          <t>vSAT_stims-1650996108057349.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778190196626.csv</t>
+          <t>SAT_stims-16509961080253592.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778190516596.csv</t>
+          <t>SAT_stims-16509961080093818.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778190076606.csv</t>
+          <t>vSAT_stims-1650996108041382.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_18/participant_18_task_orders.xlsx
+++ b/participants/participant_18/participant_18_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650996106457352" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961079533937" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961079533937" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961080093818" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961080733855" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687019149263" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687036174378" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687036194012" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687036664028" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687037433991" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961064253502.csv</t>
+          <t>go_stims-16511687018709295.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961064413476.csv</t>
+          <t>GNG_stims-16511687018979337.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961064413476.csv</t>
+          <t>go_stims-16511687018999283.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996106457352.csv</t>
+          <t>GNG_stims-16511687019139292.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_7-165099610656935.csv</t>
+          <t>OB-16511687026541667.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16509961072813475.csv</t>
+          <t>TB-16511687031781378.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16509961070013518.csv</t>
+          <t>TB-16511687036024323.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1650996107937352.csv</t>
+          <t>ZB-match_7-16511687020079277.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-165099610680938.csv</t>
+          <t>TB-16511687035024018.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650996107417388.csv</t>
+          <t>ZB-match_9-16511687021761775.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_8-16509961065293858.csv</t>
+          <t>OB-16511687031291397.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650996107721382.csv</t>
+          <t>ZB-match_6-16511687025271375.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961067213483.csv</t>
+          <t>OB-1651168702584142.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961079693484.csv</t>
+          <t>MM_stims-16511687036334376.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961079533937.csv</t>
+          <t>ZM_stims-16511687036204019.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961079933825.csv</t>
+          <t>MM_stims-1651168703649433.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961079693484.csv</t>
+          <t>ZM_stims-16511687036343987.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961080093818.csv</t>
+          <t>MM_stims-1651168703665397.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961079933825.csv</t>
+          <t>ZM_stims-1651168703649433.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996108057349.csv</t>
+          <t>SAT_stims-16511687036963973.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961080253592.csv</t>
+          <t>vSAT_stims-16511687037123969.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961080093818.csv</t>
+          <t>vSAT_stims-16511687037283976.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996108041382.csv</t>
+          <t>SAT_stims-16511687036713989.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_18/participant_18_task_orders.xlsx
+++ b/participants/participant_18/participant_18_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687019149263" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687036174378" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687036194012" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687036664028" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687037433991" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555290871246" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555315016506" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555315086603" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651255531564647" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555316426508" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687018709295.csv</t>
+          <t>go_stims-16512555290451293.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687018979337.csv</t>
+          <t>GNG_stims-16512555290701232.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687018999283.csv</t>
+          <t>go_stims-16512555290721257.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687019139292.csv</t>
+          <t>GNG_stims-16512555290861254.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511687026541667.csv</t>
+          <t>ZB-match_7-16512555297424881.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511687031781378.csv</t>
+          <t>TB-16512555314916477.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511687036024323.csv</t>
+          <t>ZB-match_6-16512555291231256.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511687020079277.csv</t>
+          <t>OB-16512555299154882.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511687035024018.csv</t>
+          <t>OB-1651255529854487.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511687021761775.csv</t>
+          <t>TB-16512555313256469.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511687031291397.csv</t>
+          <t>ZB-match_6-16512555294011624.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_6-16511687025271375.csv</t>
+          <t>TB-16512555308456485.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1651168702584142.csv</t>
+          <t>OB-1651255530095489.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687036334376.csv</t>
+          <t>MM_stims-16512555315316484.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687036204019.csv</t>
+          <t>ZM_stims-1651255531510648.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168703649433.csv</t>
+          <t>MM_stims-1651255531547647.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687036343987.csv</t>
+          <t>ZM_stims-1651255531532648.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168703665397.csv</t>
+          <t>MM_stims-16512555315636466.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168703649433.csv</t>
+          <t>ZM_stims-16512555315486474.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687036963973.csv</t>
+          <t>vSAT_stims-16512555316276498.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687037123969.csv</t>
+          <t>SAT_stims-16512555315716531.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687037283976.csv</t>
+          <t>vSAT_stims-16512555316106465.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687036713989.csv</t>
+          <t>SAT_stims-16512555315946486.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_18/participant_18_task_orders.xlsx
+++ b/participants/participant_18/participant_18_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555290871246" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555315016506" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555315086603" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651255531564647" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555316426508" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TOL_TO-16515889613168297" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651588963511486" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-16515889635910282" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-16515889636246362" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RS_TO-16515889636257298" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555290451293.csv</t>
+          <t>MM_stims-16515889612848053.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555290701232.csv</t>
+          <t>ZM_stims-16515889612671185.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555290721257.csv</t>
+          <t>MM_stims-16515889613003638.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555290861254.csv</t>
+          <t>ZM_stims-16515889612858076.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889613155239.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889613014126.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_7-16512555297424881.csv</t>
+          <t>ZB-match_8-16515889617887733.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512555314916477.csv</t>
+          <t>TB-16515889625981922.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512555291231256.csv</t>
+          <t>OB-16515889620207105.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16512555299154882.csv</t>
+          <t>ZB-match_5-16515889617588763.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1651255529854487.csv</t>
+          <t>TB-16515889624283602.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512555313256469.csv</t>
+          <t>TB-16515889634937243.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +596,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512555294011624.csv</t>
+          <t>OB-16515889618930802.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +606,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16512555308456485.csv</t>
+          <t>ZB-match_0-16515889615588672.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +616,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1651255530095489.csv</t>
+          <t>OB-16515889618211083.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889635749226.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889635590837.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAT_stims-1651588963521913.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515889635425766.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515889635957766.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-1651588963606868.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-16515889636098762.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515889636226845.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -649,156 +801,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555315316484.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255531510648.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255531547647.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255531532648.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555315636466.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555315486474.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555316276498.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555315716531.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555316106465.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555315946486.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>